--- a/processor_schemas/CALGEM Well Summary Schema.xlsx
+++ b/processor_schemas/CALGEM Well Summary Schema.xlsx
@@ -9,14 +9,14 @@
     <sheet state="visible" name="CA_Ver_A_WellSummary" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trained Models'!$A$1:$K$9</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">CA_Ver_A_WellSummary!$A$1:$W$60</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="150">
   <si>
     <t>Workflow Step</t>
   </si>
@@ -135,10 +135,28 @@
     <t>T6</t>
   </si>
   <si>
+    <t>482c21c99c1260e9</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>36c138826b85256f</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
     <t>primary</t>
   </si>
   <si>
-    <t>482c21c99c1260e9</t>
+    <t>1b811b19a0d8398e</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>93243e0b936e76d</t>
   </si>
   <si>
     <t>Bucket Documents</t>
@@ -213,205 +231,241 @@
     <t>T6 Fscores</t>
   </si>
   <si>
+    <t>C3 Fscores</t>
+  </si>
+  <si>
+    <t>T7 Fscores</t>
+  </si>
+  <si>
+    <t>T8 Fscores</t>
+  </si>
+  <si>
     <t>Well Summary Report Types A</t>
   </si>
   <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Plain text</t>
+  </si>
+  <si>
+    <t>Optional once</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Well_No</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t>string_to_int</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>B_And_M</t>
   </si>
   <si>
-    <t>Plain text</t>
-  </si>
-  <si>
-    <t>Optional once</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Optional multiple</t>
+  </si>
+  <si>
+    <t>Elevation_Ground</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>Depth_Measurements_Taken_From</t>
+  </si>
+  <si>
+    <t>Depth_Measurement_Feet_Above_Ground</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Signed</t>
+  </si>
+  <si>
+    <t>Engineer_Geologist</t>
+  </si>
+  <si>
+    <t>Superintendent</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Commenced_Drilling</t>
+  </si>
+  <si>
+    <t>clean_date</t>
+  </si>
+  <si>
+    <t>Completed_Drilling</t>
+  </si>
+  <si>
+    <t>Total_Depth</t>
+  </si>
+  <si>
+    <t>Plugged_Depth</t>
+  </si>
+  <si>
+    <t>Junk</t>
+  </si>
+  <si>
+    <t>Commenced_Producing</t>
+  </si>
+  <si>
+    <t>Flowing</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>if crossed out false</t>
+  </si>
+  <si>
+    <t>Gas_Lift</t>
+  </si>
+  <si>
+    <t>Pumping</t>
+  </si>
+  <si>
+    <t>Geological_Marker_Depth</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Geological_Marker_Depth::Geologial_Markers</t>
+  </si>
+  <si>
+    <t>Geological_Marker_Depth::Depth</t>
+  </si>
+  <si>
+    <t>Geological_Age_Total_Depth</t>
+  </si>
+  <si>
+    <t>Name_Producing_Zone</t>
+  </si>
+  <si>
+    <t>Initial_Production_Clean_Oil</t>
+  </si>
+  <si>
+    <t>Initial_Production_Gravity_Clean_Oil</t>
+  </si>
+  <si>
+    <t>Initial_Production_Percent_Water</t>
+  </si>
+  <si>
+    <t>Initial_Production_Gas</t>
+  </si>
+  <si>
+    <t>Initial_Production_Tubing_Pressure</t>
+  </si>
+  <si>
+    <t>Initial_Production_Casing_Pressure</t>
+  </si>
+  <si>
+    <t>Production_After_Clean_Oil</t>
+  </si>
+  <si>
+    <t>Production_After_Gravity_Clean_Oil</t>
+  </si>
+  <si>
+    <t>Production_After_Percent_Water</t>
+  </si>
+  <si>
+    <t>Production_After_Gas</t>
+  </si>
+  <si>
+    <t>Production_After_Tubing_Pressure</t>
+  </si>
+  <si>
+    <t>Production_After_Casing_Pressure</t>
+  </si>
+  <si>
+    <t>Casing_Record</t>
+  </si>
+  <si>
+    <t>Casing_Record::Size_of_Casing</t>
+  </si>
+  <si>
+    <t>Casing_Record::Depth_Of_Shoe</t>
+  </si>
+  <si>
+    <t>Casing_Record::Top_Of_Casing</t>
+  </si>
+  <si>
+    <t>Casing_Record::Weight_Of_Casing</t>
+  </si>
+  <si>
+    <t>Casing_Record::New_Second_Hand</t>
+  </si>
+  <si>
+    <t>Casing_Record::Seamless_Lapweld</t>
+  </si>
+  <si>
+    <t>Casing_Record::Grade_Of_Casing</t>
+  </si>
+  <si>
+    <t>Casing_Record::Size_Of_Hole_Drilled</t>
+  </si>
+  <si>
+    <t>Casing_Record::Number_Of_Sacks_Of_Cement</t>
+  </si>
+  <si>
+    <t>Casing_Record::Depth_Of_Cementing_Through_Perforations</t>
   </si>
   <si>
     <t>Carsing_Record_Notes</t>
   </si>
   <si>
-    <t>Optional multiple</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Casing_Record</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Casing_Record::Depth_Of_Cementing_Through_Perforations</t>
-  </si>
-  <si>
-    <t>Casing_Record::Depth_Of_Shoe</t>
-  </si>
-  <si>
-    <t>Casing_Record::Grade_Of_Casing</t>
-  </si>
-  <si>
-    <t>Casing_Record::New_Second_Hand</t>
-  </si>
-  <si>
-    <t>Casing_Record::Number_Of_Sacks_Of_Cement</t>
-  </si>
-  <si>
-    <t>Casing_Record::Seamless_Lapweld</t>
-  </si>
-  <si>
-    <t>Casing_Record::Size_of_Casing</t>
-  </si>
-  <si>
-    <t>Casing_Record::Size_Of_Hole_Drilled</t>
-  </si>
-  <si>
-    <t>Casing_Record::Top_Of_Casing</t>
-  </si>
-  <si>
-    <t>Casing_Record::Weight_Of_Casing</t>
-  </si>
-  <si>
-    <t>Commenced_Drilling</t>
-  </si>
-  <si>
-    <t>Datetime</t>
-  </si>
-  <si>
-    <t>Commenced_Producing</t>
-  </si>
-  <si>
-    <t>Completed_Drilling</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Depth_Measurement_Feet_Above_Ground</t>
-  </si>
-  <si>
-    <t>Depth_Measurements_Taken_From</t>
+    <t>Perforated_Casing</t>
   </si>
   <si>
     <t>Directionally_Drilled</t>
   </si>
   <si>
     <t>Electrical_Log_Depths</t>
-  </si>
-  <si>
-    <t>Elevation_Ground</t>
-  </si>
-  <si>
-    <t>Engineer_Geologist</t>
-  </si>
-  <si>
-    <t>Feet</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Flowing</t>
-  </si>
-  <si>
-    <t>Gas_Lift</t>
-  </si>
-  <si>
-    <t>Geological_Age_Total_Depth</t>
-  </si>
-  <si>
-    <t>Geological_Marker_Depth</t>
-  </si>
-  <si>
-    <t>Geological_Marker_Depth::Depth</t>
-  </si>
-  <si>
-    <t>Geological_Marker_Depth::Geologial_Markers</t>
-  </si>
-  <si>
-    <t>Initial_Production_Casing_Pressure</t>
-  </si>
-  <si>
-    <t>Initial_Production_Clean_Oil</t>
-  </si>
-  <si>
-    <t>Initial_Production_Gas</t>
-  </si>
-  <si>
-    <t>Initial_Production_Gravity_Clean_Oil</t>
-  </si>
-  <si>
-    <t>Initial_Production_Percent_Water</t>
-  </si>
-  <si>
-    <t>Initial_Production_Tubing_Pressure</t>
-  </si>
-  <si>
-    <t>Junk</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Name_Producing_Zone</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Perforated_Casing</t>
-  </si>
-  <si>
-    <t>Plugged_Depth</t>
-  </si>
-  <si>
-    <t>Production_After_Casing_Pressure</t>
-  </si>
-  <si>
-    <t>Production_After_Clean_Oil</t>
-  </si>
-  <si>
-    <t>Production_After_Gas</t>
-  </si>
-  <si>
-    <t>Production_After_Gravity_Clean_Oil</t>
-  </si>
-  <si>
-    <t>Production_After_Percent_Water</t>
-  </si>
-  <si>
-    <t>Production_After_Tubing_Pressure</t>
-  </si>
-  <si>
-    <t>Pumping</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Sec</t>
-  </si>
-  <si>
-    <t>Signed</t>
-  </si>
-  <si>
-    <t>Superintendent</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Total_Depth</t>
-  </si>
-  <si>
-    <t>Well_No</t>
   </si>
 </sst>
 </file>
@@ -502,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -514,47 +568,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -604,12 +639,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Data Buckets-style">
+    <tableStyle count="3" pivot="0" name="Trained Models-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="CA_Ver_A_WellSummary-style">
+    <tableStyle count="3" pivot="0" name="Data Buckets-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -647,7 +682,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D2" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K12" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="11">
+    <tableColumn name="Processor Type" id="1"/>
+    <tableColumn name="Processor Name" id="2"/>
+    <tableColumn name="Model Name" id="3"/>
+    <tableColumn name="F1 Score" id="4"/>
+    <tableColumn name="Primary Model in Processor" id="5"/>
+    <tableColumn name="Training Documents" id="6"/>
+    <tableColumn name="Testing Documents" id="7"/>
+    <tableColumn name="Date Trained" id="8"/>
+    <tableColumn name="Foundation Model" id="9"/>
+    <tableColumn name="Processor ID" id="10"/>
+    <tableColumn name="Model ID" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Trained Models-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D2" displayName="Table_3" name="Table_3" id="3">
   <tableColumns count="4">
     <tableColumn name="Processor" id="1"/>
     <tableColumn name="Model" id="2"/>
@@ -655,34 +709,6 @@
     <tableColumn name="Bucket File Path" id="4"/>
   </tableColumns>
   <tableStyleInfo name="Data Buckets-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:T60" displayName="Table_3" name="Table_3" id="3">
-  <tableColumns count="20">
-    <tableColumn name="Google Processor Name" id="1"/>
-    <tableColumn name="OGRRE Document Type" id="2"/>
-    <tableColumn name="Page Order Sort" id="3"/>
-    <tableColumn name="Name" id="4"/>
-    <tableColumn name="Google Data type" id="5"/>
-    <tableColumn name="Occurrence" id="6"/>
-    <tableColumn name="Grouping" id="7"/>
-    <tableColumn name="Database Data Type" id="8"/>
-    <tableColumn name="Cleaning Function" id="9"/>
-    <tableColumn name="Accepted Range" id="10"/>
-    <tableColumn name="Field Specific Notes" id="11"/>
-    <tableColumn name="Model Enabled" id="12"/>
-    <tableColumn name="T1 Fscores" id="13"/>
-    <tableColumn name="T2 Fscores" id="14"/>
-    <tableColumn name="C1 Fscores" id="15"/>
-    <tableColumn name="T3 Fscores" id="16"/>
-    <tableColumn name="T4 Fscores" id="17"/>
-    <tableColumn name="C2 Fscores" id="18"/>
-    <tableColumn name="T5 Fscores" id="19"/>
-    <tableColumn name="T6 Fscores" id="20"/>
-  </tableColumns>
-  <tableStyleInfo name="CA_Ver_A_WellSummary-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -2006,56 +2032,56 @@
       <c r="D2" s="6">
         <v>0.835</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6">
         <v>14.0</v>
       </c>
       <c r="G2" s="6">
         <v>10.0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>45629.0</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>0.867</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
         <v>14.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>10.0</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="7">
         <v>45629.0</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2072,54 +2098,54 @@
       <c r="D4" s="6">
         <v>0.879</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6">
         <v>110.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>45719.0</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>0.893</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>127.0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>110.0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>45719.0</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2136,61 +2162,61 @@
       <c r="D6" s="6">
         <v>0.901</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6">
         <v>127.0</v>
       </c>
       <c r="G6" s="6">
         <v>110.0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>45719.0</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="6">
         <v>0.882</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>316.0</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="6">
         <v>110.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="7">
         <v>45720.0</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2199,107 +2225,186 @@
       <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="6">
         <v>0.906</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>316.0</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="6">
         <v>110.0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="7">
         <v>45720.0</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="6">
         <v>0.9</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>316.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>45720.0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="14">
-        <v>316.0</v>
-      </c>
-      <c r="G9" s="14">
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.896</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>364.0</v>
+      </c>
+      <c r="G10" s="6">
         <v>110.0</v>
       </c>
-      <c r="H9" s="16">
-        <v>45720.0</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="H10" s="7">
+        <v>45727.0</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.906</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6">
+        <v>364.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>45727.0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.902</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>364.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45728.0</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="K12" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13">
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$9"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B12">
       <formula1>"CA_Ver_A_WellSummary"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I12">
       <formula1>"pretrained-foundation-model-v1.3-2024-08-31,pretrained-foundation-model-v1.2-2024-05-10,pretrained-foundation-model-v1.1-2024-03-12,pretrained-foundation-model-v1.4-2024-02-05,pretrained-foundation-model-v1.0-2023-08-22,Custom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A12">
       <formula1>"Extractor,Classifier,Splitter"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2328,33 +2433,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
@@ -2364,10 +2469,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21"/>
@@ -3390,2387 +3495,2747 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="C1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="E1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="G1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="H1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="I1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="J1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="K1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="L1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="M1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="N1" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="O1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.526</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0.316</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.947</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.737</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.976</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0.961</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0.946</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.971</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.981</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0.961</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.981</v>
+      </c>
+      <c r="V4" s="15">
+        <v>986.0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.667</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.842</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.923</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0.945</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0.967</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.939</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0.94</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0.959</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0.922</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.842</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.842</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.863</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.874</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.892</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.852</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.889</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0.874</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.895</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.897</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="16">
         <v>6.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="D7" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="18">
         <v>0.0</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N7" s="18">
         <v>0.105</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O7" s="18">
         <v>0.939</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P7" s="18">
         <v>0.935</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q7" s="18">
         <v>0.924</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R7" s="18">
         <v>0.939</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S7" s="18">
         <v>0.925</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T7" s="18">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="U7" s="18">
+        <v>0.939</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.308</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.364</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.559</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0.636</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0.661</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0.563</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0.661</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0.564</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="16">
+        <v>14.0</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.973</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.973</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0.977</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0.982</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0.991</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0.991</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0.977</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0.991</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0.953</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0.954</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0.973</v>
+      </c>
+      <c r="R21" s="18">
+        <v>0.963</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0.977</v>
+      </c>
+      <c r="T21" s="18">
+        <v>0.982</v>
+      </c>
+      <c r="U21" s="18">
+        <v>0.982</v>
+      </c>
+      <c r="V21" s="18">
+        <v>0.968</v>
+      </c>
+      <c r="W21" s="18">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="16">
+        <v>22.0</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="16">
+        <v>24.0</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0.333</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="16">
+        <v>26.0</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="16">
+        <v>28.0</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="16">
+        <v>30.0</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="13">
+        <v>31.0</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="16">
+        <v>32.0</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="13">
+        <v>33.0</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="16">
+        <v>34.0</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="13">
+        <v>35.0</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="16">
+        <v>36.0</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="13">
+        <v>37.0</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="16">
+        <v>38.0</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="13">
+        <v>39.0</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="13">
+        <v>41.0</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="16">
+        <v>42.0</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="13">
+        <v>43.0</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="16">
+        <v>44.0</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="13">
+        <v>45.0</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="15">
+        <v>0.989</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0.989</v>
+      </c>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="16">
+        <v>46.0</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0.933</v>
+      </c>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="13">
+        <v>47.0</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N48" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="16">
+        <v>48.0</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N49" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="13">
+        <v>49.0</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0.966</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0.966</v>
+      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="16">
+        <v>50.0</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="13">
+        <v>51.0</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N52" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="16">
+        <v>52.0</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0.933</v>
+      </c>
+      <c r="N53" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="13">
+        <v>53.0</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M54" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N54" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="16">
+        <v>54.0</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M55" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="N55" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="13">
+        <v>55.0</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="16">
         <v>56.0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="25">
-        <v>45.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="D57" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.989</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.989</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="25">
-        <v>55.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="25">
-        <v>47.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C58" s="13">
+        <v>57.0</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="25">
-        <v>52.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F58" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="16">
+        <v>58.0</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.933</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="25">
-        <v>50.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G59" s="17"/>
+      <c r="H59" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="13">
+        <v>59.0</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="25">
-        <v>54.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="25">
-        <v>51.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="25">
-        <v>46.0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.933</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="25">
-        <v>53.0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="25">
-        <v>48.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="25">
-        <v>49.0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.966</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.966</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="25">
-        <v>19.0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.973</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0.973</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0.977</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.982</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.991</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.991</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="25">
-        <v>24.0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.333</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="25">
-        <v>20.0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.953</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0.954</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0.973</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0.963</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0.977</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0.982</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="25">
-        <v>14.0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="25">
-        <v>13.0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="25">
-        <v>12.0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="25">
-        <v>58.0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="25">
-        <v>59.0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="25">
-        <v>16.0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="25">
-        <v>25.0</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="25">
-        <v>26.0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="25">
-        <v>31.0</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="25">
-        <v>28.0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="25">
-        <v>30.0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="25">
-        <v>29.0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="25">
-        <v>38.0</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="25">
-        <v>33.0</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="25">
-        <v>36.0</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="25">
-        <v>34.0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="25">
-        <v>35.0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="25">
-        <v>37.0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="25">
-        <v>23.0</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0.308</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0.364</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0.559</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0.636</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0.661</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0.563</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0.661</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="25">
-        <v>32.0</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="25">
-        <v>57.0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="25">
-        <v>22.0</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="25">
-        <v>44.0</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="25">
-        <v>39.0</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="25">
-        <v>42.0</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="25">
-        <v>40.0</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="25">
-        <v>41.0</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="25">
-        <v>43.0</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="25">
-        <v>27.0</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0.842</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.842</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0.863</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0.874</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0.892</v>
-      </c>
-      <c r="R53" s="3">
-        <v>0.852</v>
-      </c>
-      <c r="S53" s="3">
-        <v>0.889</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0.874</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0.947</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.737</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0.976</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0.961</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0.946</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0.971</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0.981</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0.961</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="25">
-        <v>17.0</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0.667</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0.842</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0.923</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0.945</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0.967</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0.939</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="25">
-        <v>18.0</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="25">
-        <v>21.0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0.526</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.316</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$W$60">
+    <sortState ref="A1:W60">
+      <sortCondition ref="C1:C60"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>